--- a/ig/sd-add-date-start-idPrimary/all-profiles.xlsx
+++ b/ig/sd-add-date-start-idPrimary/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8510" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8642" uniqueCount="864">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T11:26:00+00:00</t>
+    <t>2024-01-24T11:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1869,6 +1869,65 @@
     <t>Identifier.period</t>
   </si>
   <si>
+    <t>ResearchStudy.identifier:idPrimary.period.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.period.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.period.start</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date d'inscription au registre principal / Date of Registration in Primary Registry</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t>ele-1
+per-1</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.period.end</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period.end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
     <t>ResearchStudy.identifier:idPrimary.assigner</t>
   </si>
   <si>
@@ -2434,42 +2493,13 @@
     <t>ResearchStudy.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
     <t>Starting time with inclusive boundary</t>
   </si>
   <si>
-    <t>The start of the period. The boundary is inclusive.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t>ele-1
-per-1</t>
-  </si>
-  <si>
     <t>ResearchStudy.period.end</t>
   </si>
   <si>
     <t>Date à laquelle l'essai se termine (la date initiale est prévisionnelle) / Completion date</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
-  </si>
-  <si>
-    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>If the end of the period is missing, it means that the period is ongoing</t>
-  </si>
-  <si>
-    <t>Period.end</t>
   </si>
   <si>
     <t>ResearchStudy.sponsor</t>
@@ -4306,7 +4336,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>844</v>
+        <v>854</v>
       </c>
     </row>
     <row r="199">
@@ -4322,7 +4352,7 @@
         <v>8</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>845</v>
+        <v>855</v>
       </c>
     </row>
     <row r="201">
@@ -4474,7 +4504,7 @@
         <v>4</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>847</v>
+        <v>857</v>
       </c>
     </row>
     <row r="221">
@@ -4490,7 +4520,7 @@
         <v>8</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>848</v>
+        <v>858</v>
       </c>
     </row>
     <row r="223">
@@ -4642,7 +4672,7 @@
         <v>4</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>849</v>
+        <v>859</v>
       </c>
     </row>
     <row r="243">
@@ -4658,7 +4688,7 @@
         <v>8</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>850</v>
+        <v>860</v>
       </c>
     </row>
     <row r="245">
@@ -4786,7 +4816,7 @@
         <v>38</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>851</v>
+        <v>861</v>
       </c>
     </row>
     <row r="262">
@@ -4810,7 +4840,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>852</v>
+        <v>862</v>
       </c>
     </row>
     <row r="265">
@@ -4826,7 +4856,7 @@
         <v>8</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>853</v>
+        <v>863</v>
       </c>
     </row>
     <row r="267">
@@ -4964,7 +4994,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK242"/>
+  <dimension ref="A1:AK246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -20657,20 +20687,18 @@
         <v>76</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>447</v>
+        <v>84</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>600</v>
+        <v>85</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>602</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O150" s="2"/>
       <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
         <v>76</v>
@@ -20719,7 +20747,7 @@
         <v>76</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>603</v>
+        <v>87</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>77</v>
@@ -20728,10 +20756,10 @@
         <v>83</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151">
@@ -20739,16 +20767,14 @@
         <v>491</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="D151" t="s" s="2">
-        <v>605</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" t="s" s="2">
@@ -20758,27 +20784,27 @@
         <v>78</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J151" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>606</v>
+        <v>174</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O151" s="2"/>
-      <c r="P151" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P151" s="2"/>
       <c r="Q151" t="s" s="2">
         <v>76</v>
       </c>
@@ -20814,19 +20840,19 @@
         <v>76</v>
       </c>
       <c r="AC151" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD151" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE151" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>546</v>
+        <v>94</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>77</v>
@@ -20838,7 +20864,7 @@
         <v>80</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152">
@@ -20846,10 +20872,10 @@
         <v>491</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>556</v>
+        <v>603</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20869,18 +20895,20 @@
         <v>76</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>84</v>
+        <v>604</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>85</v>
+        <v>605</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O152" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="O152" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
         <v>76</v>
@@ -20929,7 +20957,7 @@
         <v>76</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>87</v>
+        <v>608</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>77</v>
@@ -20938,10 +20966,10 @@
         <v>83</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>76</v>
+        <v>609</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="153">
@@ -20949,21 +20977,21 @@
         <v>491</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>558</v>
+        <v>611</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>76</v>
@@ -20972,25 +21000,27 @@
         <v>76</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>89</v>
+        <v>604</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>174</v>
+        <v>612</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>237</v>
+        <v>613</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>176</v>
+        <v>614</v>
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R153" s="2"/>
+      <c r="R153" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="S153" t="s" s="2">
         <v>76</v>
       </c>
@@ -21022,31 +21052,31 @@
         <v>76</v>
       </c>
       <c r="AC153" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD153" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE153" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>94</v>
+        <v>616</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>80</v>
+        <v>609</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154">
@@ -21054,10 +21084,10 @@
         <v>491</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -21065,7 +21095,7 @@
       </c>
       <c r="F154" s="2"/>
       <c r="G154" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>83</v>
@@ -21074,26 +21104,24 @@
         <v>76</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K154" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>150</v>
+        <v>447</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>562</v>
+        <v>620</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="P154" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="P154" s="2"/>
       <c r="Q154" t="s" s="2">
         <v>76</v>
       </c>
@@ -21102,7 +21130,7 @@
         <v>76</v>
       </c>
       <c r="T154" t="s" s="2">
-        <v>610</v>
+        <v>76</v>
       </c>
       <c r="U154" t="s" s="2">
         <v>76</v>
@@ -21117,13 +21145,13 @@
         <v>76</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>566</v>
+        <v>76</v>
       </c>
       <c r="AA154" t="s" s="2">
-        <v>567</v>
+        <v>76</v>
       </c>
       <c r="AB154" t="s" s="2">
         <v>76</v>
@@ -21141,7 +21169,7 @@
         <v>76</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>568</v>
+        <v>622</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>77</v>
@@ -21153,7 +21181,7 @@
         <v>80</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="155">
@@ -21161,12 +21189,14 @@
         <v>491</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="D155" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="D155" t="s" s="2">
+        <v>624</v>
+      </c>
       <c r="E155" t="s" s="2">
         <v>76</v>
       </c>
@@ -21175,10 +21205,10 @@
         <v>77</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J155" t="s" s="2">
         <v>76</v>
@@ -21187,19 +21217,17 @@
         <v>133</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>571</v>
+        <v>625</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="Q155" t="s" s="2">
         <v>76</v>
@@ -21224,13 +21252,13 @@
         <v>76</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>575</v>
+        <v>76</v>
       </c>
       <c r="AA155" t="s" s="2">
-        <v>576</v>
+        <v>76</v>
       </c>
       <c r="AB155" t="s" s="2">
         <v>76</v>
@@ -21248,13 +21276,13 @@
         <v>76</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>80</v>
@@ -21268,10 +21296,10 @@
         <v>491</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -21291,23 +21319,19 @@
         <v>76</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>580</v>
+        <v>85</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="P156" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
         <v>76</v>
       </c>
@@ -21319,7 +21343,7 @@
         <v>76</v>
       </c>
       <c r="U156" t="s" s="2">
-        <v>584</v>
+        <v>76</v>
       </c>
       <c r="V156" t="s" s="2">
         <v>76</v>
@@ -21355,7 +21379,7 @@
         <v>76</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>585</v>
+        <v>87</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>77</v>
@@ -21364,10 +21388,10 @@
         <v>83</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="157">
@@ -21375,21 +21399,21 @@
         <v>491</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>76</v>
@@ -21398,19 +21422,19 @@
         <v>76</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>588</v>
+        <v>174</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>589</v>
+        <v>237</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>590</v>
+        <v>176</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" t="s" s="2">
@@ -21424,7 +21448,7 @@
         <v>76</v>
       </c>
       <c r="U157" t="s" s="2">
-        <v>591</v>
+        <v>76</v>
       </c>
       <c r="V157" t="s" s="2">
         <v>76</v>
@@ -21448,31 +21472,31 @@
         <v>76</v>
       </c>
       <c r="AC157" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD157" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE157" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>592</v>
+        <v>94</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="158">
@@ -21480,10 +21504,10 @@
         <v>491</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -21491,7 +21515,7 @@
       </c>
       <c r="F158" s="2"/>
       <c r="G158" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>83</v>
@@ -21500,24 +21524,26 @@
         <v>76</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K158" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="P158" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="P158" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="Q158" t="s" s="2">
         <v>76</v>
       </c>
@@ -21526,7 +21552,7 @@
         <v>76</v>
       </c>
       <c r="T158" t="s" s="2">
-        <v>76</v>
+        <v>629</v>
       </c>
       <c r="U158" t="s" s="2">
         <v>76</v>
@@ -21541,13 +21567,13 @@
         <v>76</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="Z158" t="s" s="2">
-        <v>76</v>
+        <v>566</v>
       </c>
       <c r="AA158" t="s" s="2">
-        <v>76</v>
+        <v>567</v>
       </c>
       <c r="AB158" t="s" s="2">
         <v>76</v>
@@ -21565,7 +21591,7 @@
         <v>76</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>77</v>
@@ -21577,7 +21603,7 @@
         <v>80</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>271</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159">
@@ -21585,10 +21611,10 @@
         <v>491</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -21611,18 +21637,20 @@
         <v>133</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>447</v>
+        <v>118</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="P159" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="P159" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="Q159" t="s" s="2">
         <v>76</v>
       </c>
@@ -21646,13 +21674,13 @@
         <v>76</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>76</v>
+        <v>575</v>
       </c>
       <c r="AA159" t="s" s="2">
-        <v>76</v>
+        <v>576</v>
       </c>
       <c r="AB159" t="s" s="2">
         <v>76</v>
@@ -21670,7 +21698,7 @@
         <v>76</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>77</v>
@@ -21682,7 +21710,7 @@
         <v>80</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160">
@@ -21690,10 +21718,10 @@
         <v>491</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -21707,7 +21735,7 @@
         <v>83</v>
       </c>
       <c r="I160" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J160" t="s" s="2">
         <v>76</v>
@@ -21716,18 +21744,20 @@
         <v>133</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>618</v>
+        <v>581</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="P160" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="P160" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="Q160" t="s" s="2">
         <v>76</v>
       </c>
@@ -21739,7 +21769,7 @@
         <v>76</v>
       </c>
       <c r="U160" t="s" s="2">
-        <v>76</v>
+        <v>584</v>
       </c>
       <c r="V160" t="s" s="2">
         <v>76</v>
@@ -21775,7 +21805,7 @@
         <v>76</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>616</v>
+        <v>585</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>77</v>
@@ -21795,10 +21825,10 @@
         <v>491</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>619</v>
+        <v>587</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21809,7 +21839,7 @@
         <v>77</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I161" t="s" s="2">
         <v>76</v>
@@ -21821,16 +21851,16 @@
         <v>133</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>620</v>
+        <v>84</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>283</v>
+        <v>590</v>
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" t="s" s="2">
@@ -21844,7 +21874,7 @@
         <v>76</v>
       </c>
       <c r="U161" t="s" s="2">
-        <v>76</v>
+        <v>591</v>
       </c>
       <c r="V161" t="s" s="2">
         <v>76</v>
@@ -21880,19 +21910,19 @@
         <v>76</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="162">
@@ -21900,21 +21930,21 @@
         <v>491</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>624</v>
+        <v>76</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H162" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I162" t="s" s="2">
         <v>76</v>
@@ -21926,20 +21956,18 @@
         <v>133</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>625</v>
+        <v>267</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>626</v>
+        <v>595</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>627</v>
+        <v>596</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="P162" t="s" s="2">
-        <v>628</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
         <v>76</v>
       </c>
@@ -21987,19 +22015,19 @@
         <v>76</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>228</v>
+        <v>271</v>
       </c>
     </row>
     <row r="163">
@@ -22007,10 +22035,10 @@
         <v>491</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -22018,31 +22046,31 @@
       </c>
       <c r="F163" s="2"/>
       <c r="G163" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H163" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>150</v>
+        <v>447</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>215</v>
+        <v>621</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
@@ -22068,13 +22096,13 @@
         <v>76</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>632</v>
+        <v>76</v>
       </c>
       <c r="AA163" t="s" s="2">
-        <v>633</v>
+        <v>76</v>
       </c>
       <c r="AB163" t="s" s="2">
         <v>76</v>
@@ -22092,10 +22120,10 @@
         <v>76</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI163" t="s" s="2">
         <v>83</v>
@@ -22104,7 +22132,7 @@
         <v>80</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="164">
@@ -22112,10 +22140,10 @@
         <v>491</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -22129,7 +22157,7 @@
         <v>83</v>
       </c>
       <c r="I164" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J164" t="s" s="2">
         <v>76</v>
@@ -22138,16 +22166,16 @@
         <v>133</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" t="s" s="2">
@@ -22173,13 +22201,13 @@
         <v>76</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>637</v>
+        <v>76</v>
       </c>
       <c r="AA164" t="s" s="2">
-        <v>638</v>
+        <v>76</v>
       </c>
       <c r="AB164" t="s" s="2">
         <v>76</v>
@@ -22197,7 +22225,7 @@
         <v>76</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>77</v>
@@ -22217,10 +22245,10 @@
         <v>491</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -22231,10 +22259,10 @@
         <v>77</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J165" t="s" s="2">
         <v>76</v>
@@ -22243,7 +22271,7 @@
         <v>133</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>118</v>
+        <v>639</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>640</v>
@@ -22252,7 +22280,7 @@
         <v>641</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="P165" s="2"/>
       <c r="Q165" t="s" s="2">
@@ -22278,11 +22306,13 @@
         <v>76</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Z165" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA165" t="s" s="2">
-        <v>642</v>
+        <v>76</v>
       </c>
       <c r="AB165" t="s" s="2">
         <v>76</v>
@@ -22300,19 +22330,19 @@
         <v>76</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="166">
@@ -22320,14 +22350,14 @@
         <v>491</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>76</v>
+        <v>643</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" t="s" s="2">
@@ -22337,7 +22367,7 @@
         <v>78</v>
       </c>
       <c r="I166" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J166" t="s" s="2">
         <v>76</v>
@@ -22346,18 +22376,20 @@
         <v>133</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>118</v>
+        <v>644</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="P166" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="P166" t="s" s="2">
+        <v>647</v>
+      </c>
       <c r="Q166" t="s" s="2">
         <v>76</v>
       </c>
@@ -22381,11 +22413,13 @@
         <v>76</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Z166" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA166" t="s" s="2">
-        <v>646</v>
+        <v>76</v>
       </c>
       <c r="AB166" t="s" s="2">
         <v>76</v>
@@ -22403,7 +22437,7 @@
         <v>76</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>77</v>
@@ -22415,7 +22449,7 @@
         <v>80</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="167">
@@ -22423,10 +22457,10 @@
         <v>491</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -22434,31 +22468,31 @@
       </c>
       <c r="F167" s="2"/>
       <c r="G167" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H167" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
@@ -22484,13 +22518,13 @@
         <v>76</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AA167" t="s" s="2">
-        <v>76</v>
+        <v>652</v>
       </c>
       <c r="AB167" t="s" s="2">
         <v>76</v>
@@ -22508,13 +22542,13 @@
         <v>76</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>80</v>
@@ -22528,10 +22562,10 @@
         <v>491</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -22542,10 +22576,10 @@
         <v>77</v>
       </c>
       <c r="H168" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J168" t="s" s="2">
         <v>76</v>
@@ -22557,10 +22591,10 @@
         <v>118</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>246</v>
@@ -22589,13 +22623,13 @@
         <v>76</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="Z168" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="AA168" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="AB168" t="s" s="2">
         <v>76</v>
@@ -22604,22 +22638,22 @@
         <v>76</v>
       </c>
       <c r="AD168" t="s" s="2">
-        <v>656</v>
+        <v>76</v>
       </c>
       <c r="AE168" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>80</v>
@@ -22633,14 +22667,12 @@
         <v>491</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="D169" t="s" s="2">
         <v>658</v>
       </c>
+      <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
         <v>76</v>
       </c>
@@ -22649,7 +22681,7 @@
         <v>77</v>
       </c>
       <c r="H169" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I169" t="s" s="2">
         <v>133</v>
@@ -22667,7 +22699,7 @@
         <v>659</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>246</v>
@@ -22696,13 +22728,11 @@
         <v>76</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="Z169" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="Z169" s="2"/>
       <c r="AA169" t="s" s="2">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="AB169" t="s" s="2">
         <v>76</v>
@@ -22720,13 +22750,13 @@
         <v>76</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>80</v>
@@ -22740,10 +22770,10 @@
         <v>491</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -22754,27 +22784,29 @@
         <v>77</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I170" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J170" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>85</v>
+        <v>663</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O170" s="2"/>
+        <v>664</v>
+      </c>
+      <c r="O170" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
         <v>76</v>
@@ -22784,58 +22816,56 @@
         <v>76</v>
       </c>
       <c r="T170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y170" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Z170" s="2"/>
+      <c r="AA170" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG170" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="U170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG170" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="AH170" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171">
@@ -22843,14 +22873,14 @@
         <v>491</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" t="s" s="2">
@@ -22866,19 +22896,19 @@
         <v>76</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>174</v>
+        <v>667</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>237</v>
+        <v>668</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
@@ -22904,10 +22934,10 @@
         <v>76</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z171" t="s" s="2">
-        <v>76</v>
+        <v>669</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>76</v>
@@ -22916,19 +22946,19 @@
         <v>76</v>
       </c>
       <c r="AC171" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD171" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE171" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>94</v>
+        <v>666</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>77</v>
@@ -22940,7 +22970,7 @@
         <v>80</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="172">
@@ -22948,10 +22978,10 @@
         <v>491</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22965,7 +22995,7 @@
         <v>78</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J172" t="s" s="2">
         <v>76</v>
@@ -22974,20 +23004,18 @@
         <v>133</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>345</v>
+        <v>118</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="P172" t="s" s="2">
-        <v>670</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="P172" s="2"/>
       <c r="Q172" t="s" s="2">
         <v>76</v>
       </c>
@@ -23011,13 +23039,13 @@
         <v>76</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>76</v>
+        <v>673</v>
       </c>
       <c r="AA172" t="s" s="2">
-        <v>76</v>
+        <v>674</v>
       </c>
       <c r="AB172" t="s" s="2">
         <v>76</v>
@@ -23026,16 +23054,16 @@
         <v>76</v>
       </c>
       <c r="AD172" t="s" s="2">
-        <v>76</v>
+        <v>675</v>
       </c>
       <c r="AE172" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>77</v>
@@ -23055,12 +23083,14 @@
         <v>491</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="D173" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="D173" t="s" s="2">
+        <v>677</v>
+      </c>
       <c r="E173" t="s" s="2">
         <v>76</v>
       </c>
@@ -23069,27 +23099,29 @@
         <v>77</v>
       </c>
       <c r="H173" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J173" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>85</v>
+        <v>678</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O173" s="2"/>
+        <v>672</v>
+      </c>
+      <c r="O173" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P173" s="2"/>
       <c r="Q173" t="s" s="2">
         <v>76</v>
@@ -23114,13 +23146,13 @@
         <v>76</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z173" t="s" s="2">
-        <v>76</v>
+        <v>673</v>
       </c>
       <c r="AA173" t="s" s="2">
-        <v>76</v>
+        <v>674</v>
       </c>
       <c r="AB173" t="s" s="2">
         <v>76</v>
@@ -23138,19 +23170,19 @@
         <v>76</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>87</v>
+        <v>670</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="174">
@@ -23158,21 +23190,21 @@
         <v>491</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I174" t="s" s="2">
         <v>76</v>
@@ -23184,17 +23216,15 @@
         <v>76</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O174" s="2"/>
       <c r="P174" s="2"/>
       <c r="Q174" t="s" s="2">
         <v>76</v>
@@ -23204,7 +23234,7 @@
         <v>76</v>
       </c>
       <c r="T174" t="s" s="2">
-        <v>76</v>
+        <v>681</v>
       </c>
       <c r="U174" t="s" s="2">
         <v>76</v>
@@ -23231,31 +23261,31 @@
         <v>76</v>
       </c>
       <c r="AC174" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE174" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="175">
@@ -23263,21 +23293,21 @@
         <v>491</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H175" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I175" t="s" s="2">
         <v>76</v>
@@ -23286,23 +23316,21 @@
         <v>76</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>678</v>
+        <v>174</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>679</v>
+        <v>237</v>
       </c>
       <c r="O175" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="P175" t="s" s="2">
-        <v>681</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P175" s="2"/>
       <c r="Q175" t="s" s="2">
         <v>76</v>
       </c>
@@ -23311,7 +23339,7 @@
         <v>76</v>
       </c>
       <c r="T175" t="s" s="2">
-        <v>682</v>
+        <v>76</v>
       </c>
       <c r="U175" t="s" s="2">
         <v>76</v>
@@ -23338,31 +23366,31 @@
         <v>76</v>
       </c>
       <c r="AC175" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD175" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE175" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>683</v>
+        <v>94</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="176">
@@ -23384,7 +23412,7 @@
         <v>77</v>
       </c>
       <c r="H176" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I176" t="s" s="2">
         <v>76</v>
@@ -23396,7 +23424,7 @@
         <v>133</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>84</v>
+        <v>345</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>686</v>
@@ -23407,7 +23435,9 @@
       <c r="O176" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="P176" s="2"/>
+      <c r="P176" t="s" s="2">
+        <v>689</v>
+      </c>
       <c r="Q176" t="s" s="2">
         <v>76</v>
       </c>
@@ -23455,13 +23485,13 @@
         <v>76</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>80</v>
@@ -23475,10 +23505,10 @@
         <v>491</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -23498,23 +23528,19 @@
         <v>76</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>692</v>
+        <v>85</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="P177" t="s" s="2">
-        <v>694</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
       <c r="Q177" t="s" s="2">
         <v>76</v>
       </c>
@@ -23562,7 +23588,7 @@
         <v>76</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>695</v>
+        <v>87</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>77</v>
@@ -23571,10 +23597,10 @@
         <v>83</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="178">
@@ -23582,21 +23608,21 @@
         <v>491</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I178" t="s" s="2">
         <v>76</v>
@@ -23605,23 +23631,21 @@
         <v>76</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>698</v>
+        <v>174</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>699</v>
+        <v>237</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="P178" t="s" s="2">
-        <v>700</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="P178" s="2"/>
       <c r="Q178" t="s" s="2">
         <v>76</v>
       </c>
@@ -23657,31 +23681,31 @@
         <v>76</v>
       </c>
       <c r="AC178" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD178" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE178" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>701</v>
+        <v>94</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="179">
@@ -23689,10 +23713,10 @@
         <v>491</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -23715,19 +23739,19 @@
         <v>133</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="P179" t="s" s="2">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="Q179" t="s" s="2">
         <v>76</v>
@@ -23737,7 +23761,7 @@
         <v>76</v>
       </c>
       <c r="T179" t="s" s="2">
-        <v>76</v>
+        <v>701</v>
       </c>
       <c r="U179" t="s" s="2">
         <v>76</v>
@@ -23776,7 +23800,7 @@
         <v>76</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>77</v>
@@ -23796,10 +23820,10 @@
         <v>491</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -23825,17 +23849,15 @@
         <v>84</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="P180" t="s" s="2">
-        <v>714</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="P180" s="2"/>
       <c r="Q180" t="s" s="2">
         <v>76</v>
       </c>
@@ -23883,7 +23905,7 @@
         <v>76</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>77</v>
@@ -23903,14 +23925,12 @@
         <v>491</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="D181" t="s" s="2">
-        <v>717</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
         <v>76</v>
       </c>
@@ -23919,10 +23939,10 @@
         <v>77</v>
       </c>
       <c r="H181" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I181" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J181" t="s" s="2">
         <v>76</v>
@@ -23931,18 +23951,20 @@
         <v>133</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>653</v>
+        <v>712</v>
       </c>
       <c r="O181" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="P181" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="P181" t="s" s="2">
+        <v>713</v>
+      </c>
       <c r="Q181" t="s" s="2">
         <v>76</v>
       </c>
@@ -23966,13 +23988,13 @@
         <v>76</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z181" t="s" s="2">
-        <v>654</v>
+        <v>76</v>
       </c>
       <c r="AA181" t="s" s="2">
-        <v>655</v>
+        <v>76</v>
       </c>
       <c r="AB181" t="s" s="2">
         <v>76</v>
@@ -23990,13 +24012,13 @@
         <v>76</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>651</v>
+        <v>714</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>80</v>
@@ -24010,10 +24032,10 @@
         <v>491</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>661</v>
+        <v>716</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -24033,19 +24055,23 @@
         <v>76</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L182" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>85</v>
+        <v>717</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O182" s="2"/>
-      <c r="P182" s="2"/>
+        <v>718</v>
+      </c>
+      <c r="O182" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="P182" t="s" s="2">
+        <v>719</v>
+      </c>
       <c r="Q182" t="s" s="2">
         <v>76</v>
       </c>
@@ -24054,47 +24080,47 @@
         <v>76</v>
       </c>
       <c r="T182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF182" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG182" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="U182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF182" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG182" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="AH182" t="s" s="2">
         <v>77</v>
       </c>
@@ -24102,10 +24128,10 @@
         <v>83</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183">
@@ -24116,18 +24142,18 @@
         <v>721</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>664</v>
+        <v>722</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>76</v>
@@ -24136,21 +24162,23 @@
         <v>76</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>174</v>
+        <v>723</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>237</v>
+        <v>724</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P183" s="2"/>
+        <v>725</v>
+      </c>
+      <c r="P183" t="s" s="2">
+        <v>726</v>
+      </c>
       <c r="Q183" t="s" s="2">
         <v>76</v>
       </c>
@@ -24186,31 +24214,31 @@
         <v>76</v>
       </c>
       <c r="AC183" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD183" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE183" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>94</v>
+        <v>727</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="184">
@@ -24218,10 +24246,10 @@
         <v>491</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>666</v>
+        <v>729</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -24232,7 +24260,7 @@
         <v>77</v>
       </c>
       <c r="H184" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I184" t="s" s="2">
         <v>76</v>
@@ -24244,19 +24272,19 @@
         <v>133</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>345</v>
+        <v>84</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>667</v>
+        <v>730</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>668</v>
+        <v>731</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>669</v>
+        <v>732</v>
       </c>
       <c r="P184" t="s" s="2">
-        <v>670</v>
+        <v>733</v>
       </c>
       <c r="Q184" t="s" s="2">
         <v>76</v>
@@ -24305,13 +24333,13 @@
         <v>76</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>671</v>
+        <v>734</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>80</v>
@@ -24325,24 +24353,26 @@
         <v>491</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="D185" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="D185" t="s" s="2">
+        <v>736</v>
+      </c>
       <c r="E185" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H185" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I185" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J185" t="s" s="2">
         <v>76</v>
@@ -24351,20 +24381,18 @@
         <v>133</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>711</v>
+        <v>737</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>712</v>
+        <v>672</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="P185" t="s" s="2">
-        <v>714</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="P185" s="2"/>
       <c r="Q185" t="s" s="2">
         <v>76</v>
       </c>
@@ -24388,13 +24416,13 @@
         <v>76</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z185" t="s" s="2">
-        <v>76</v>
+        <v>673</v>
       </c>
       <c r="AA185" t="s" s="2">
-        <v>76</v>
+        <v>674</v>
       </c>
       <c r="AB185" t="s" s="2">
         <v>76</v>
@@ -24412,13 +24440,13 @@
         <v>76</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>715</v>
+        <v>670</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>80</v>
@@ -24432,10 +24460,10 @@
         <v>491</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>724</v>
+        <v>680</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -24446,25 +24474,25 @@
         <v>77</v>
       </c>
       <c r="H186" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I186" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J186" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>725</v>
+        <v>84</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>726</v>
+        <v>85</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>727</v>
+        <v>86</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
@@ -24476,7 +24504,7 @@
         <v>76</v>
       </c>
       <c r="T186" t="s" s="2">
-        <v>76</v>
+        <v>739</v>
       </c>
       <c r="U186" t="s" s="2">
         <v>76</v>
@@ -24515,19 +24543,19 @@
         <v>76</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>724</v>
+        <v>87</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="187">
@@ -24535,21 +24563,21 @@
         <v>491</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>728</v>
+        <v>683</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H187" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I187" t="s" s="2">
         <v>76</v>
@@ -24561,15 +24589,17 @@
         <v>76</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O187" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O187" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P187" s="2"/>
       <c r="Q187" t="s" s="2">
         <v>76</v>
@@ -24606,31 +24636,31 @@
         <v>76</v>
       </c>
       <c r="AC187" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD187" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE187" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="188">
@@ -24638,14 +24668,14 @@
         <v>491</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>729</v>
+        <v>685</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" t="s" s="2">
@@ -24661,21 +24691,23 @@
         <v>76</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>89</v>
+        <v>345</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>174</v>
+        <v>686</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>237</v>
+        <v>687</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P188" s="2"/>
+        <v>688</v>
+      </c>
+      <c r="P188" t="s" s="2">
+        <v>689</v>
+      </c>
       <c r="Q188" t="s" s="2">
         <v>76</v>
       </c>
@@ -24711,19 +24743,19 @@
         <v>76</v>
       </c>
       <c r="AC188" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD188" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE188" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>94</v>
+        <v>690</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>77</v>
@@ -24735,7 +24767,7 @@
         <v>80</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="189">
@@ -24743,44 +24775,46 @@
         <v>491</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="C189" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="D189" t="s" s="2">
-        <v>114</v>
-      </c>
+      <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H189" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J189" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K189" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="J189" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K189" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L189" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M189" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="N189" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="M189" t="s" s="2">
+      <c r="O189" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="N189" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O189" s="2"/>
-      <c r="P189" s="2"/>
+      <c r="P189" t="s" s="2">
+        <v>733</v>
+      </c>
       <c r="Q189" t="s" s="2">
         <v>76</v>
       </c>
@@ -24828,19 +24862,19 @@
         <v>76</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>94</v>
+        <v>734</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="190">
@@ -24848,14 +24882,12 @@
         <v>491</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="D190" t="s" s="2">
-        <v>3</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
         <v>76</v>
       </c>
@@ -24864,7 +24896,7 @@
         <v>77</v>
       </c>
       <c r="H190" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I190" t="s" s="2">
         <v>133</v>
@@ -24873,16 +24905,16 @@
         <v>76</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>23</v>
+        <v>746</v>
       </c>
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
@@ -24933,7 +24965,7 @@
         <v>76</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>94</v>
+        <v>743</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>77</v>
@@ -24945,7 +24977,7 @@
         <v>80</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="191">
@@ -24953,14 +24985,12 @@
         <v>491</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="D191" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
         <v>76</v>
       </c>
@@ -24972,7 +25002,7 @@
         <v>83</v>
       </c>
       <c r="I191" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J191" t="s" s="2">
         <v>76</v>
@@ -24981,13 +25011,13 @@
         <v>76</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>737</v>
+        <v>84</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>738</v>
+        <v>85</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
@@ -25038,19 +25068,19 @@
         <v>76</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="192">
@@ -25058,23 +25088,21 @@
         <v>491</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="D192" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H192" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I192" t="s" s="2">
         <v>76</v>
@@ -25086,15 +25114,17 @@
         <v>76</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>740</v>
+        <v>89</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>741</v>
+        <v>174</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O192" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O192" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
         <v>76</v>
@@ -25131,16 +25161,16 @@
         <v>76</v>
       </c>
       <c r="AC192" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD192" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE192" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>94</v>
@@ -25163,12 +25193,14 @@
         <v>491</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="D193" s="2"/>
+        <v>748</v>
+      </c>
+      <c r="D193" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="E193" t="s" s="2">
         <v>76</v>
       </c>
@@ -25180,26 +25212,24 @@
         <v>83</v>
       </c>
       <c r="I193" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J193" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>84</v>
+        <v>750</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="O193" t="s" s="2">
-        <v>745</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O193" s="2"/>
       <c r="P193" s="2"/>
       <c r="Q193" t="s" s="2">
         <v>76</v>
@@ -25248,19 +25278,19 @@
         <v>76</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>746</v>
+        <v>94</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="194">
@@ -25268,12 +25298,14 @@
         <v>491</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="D194" s="2"/>
+        <v>748</v>
+      </c>
+      <c r="D194" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E194" t="s" s="2">
         <v>76</v>
       </c>
@@ -25282,25 +25314,25 @@
         <v>77</v>
       </c>
       <c r="H194" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I194" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J194" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>375</v>
+        <v>753</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>749</v>
+        <v>23</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
@@ -25351,7 +25383,7 @@
         <v>76</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>750</v>
+        <v>94</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>77</v>
@@ -25363,7 +25395,7 @@
         <v>80</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
     </row>
     <row r="195">
@@ -25371,12 +25403,14 @@
         <v>491</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="D195" s="2"/>
+        <v>748</v>
+      </c>
+      <c r="D195" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="E195" t="s" s="2">
         <v>76</v>
       </c>
@@ -25385,7 +25419,7 @@
         <v>77</v>
       </c>
       <c r="H195" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I195" t="s" s="2">
         <v>133</v>
@@ -25397,17 +25431,15 @@
         <v>76</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="O195" t="s" s="2">
-        <v>755</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O195" s="2"/>
       <c r="P195" s="2"/>
       <c r="Q195" t="s" s="2">
         <v>76</v>
@@ -25456,7 +25488,7 @@
         <v>76</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>751</v>
+        <v>94</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>77</v>
@@ -25468,7 +25500,7 @@
         <v>80</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="196">
@@ -25476,12 +25508,14 @@
         <v>491</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="D196" s="2"/>
+        <v>748</v>
+      </c>
+      <c r="D196" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="E196" t="s" s="2">
         <v>76</v>
       </c>
@@ -25490,7 +25524,7 @@
         <v>77</v>
       </c>
       <c r="H196" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I196" t="s" s="2">
         <v>76</v>
@@ -25499,20 +25533,18 @@
         <v>76</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>118</v>
+        <v>759</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="O196" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O196" s="2"/>
       <c r="P196" s="2"/>
       <c r="Q196" t="s" s="2">
         <v>76</v>
@@ -25537,10 +25569,10 @@
         <v>76</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z196" t="s" s="2">
-        <v>759</v>
+        <v>76</v>
       </c>
       <c r="AA196" t="s" s="2">
         <v>76</v>
@@ -25561,7 +25593,7 @@
         <v>76</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>756</v>
+        <v>94</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>77</v>
@@ -25573,7 +25605,7 @@
         <v>80</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="197">
@@ -25581,10 +25613,10 @@
         <v>491</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -25595,10 +25627,10 @@
         <v>77</v>
       </c>
       <c r="H197" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I197" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J197" t="s" s="2">
         <v>76</v>
@@ -25607,16 +25639,16 @@
         <v>133</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="O197" t="s" s="2">
-        <v>246</v>
+        <v>764</v>
       </c>
       <c r="P197" s="2"/>
       <c r="Q197" t="s" s="2">
@@ -25642,13 +25674,13 @@
         <v>76</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>763</v>
+        <v>76</v>
       </c>
       <c r="AA197" t="s" s="2">
-        <v>764</v>
+        <v>76</v>
       </c>
       <c r="AB197" t="s" s="2">
         <v>76</v>
@@ -25666,13 +25698,13 @@
         <v>76</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>80</v>
@@ -25686,10 +25718,10 @@
         <v>491</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25700,29 +25732,27 @@
         <v>77</v>
       </c>
       <c r="H198" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J198" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K198" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="J198" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K198" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L198" t="s" s="2">
-        <v>540</v>
+        <v>375</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="O198" t="s" s="2">
         <v>768</v>
       </c>
+      <c r="O198" s="2"/>
       <c r="P198" s="2"/>
       <c r="Q198" t="s" s="2">
         <v>76</v>
@@ -25771,19 +25801,19 @@
         <v>76</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>104</v>
+        <v>378</v>
       </c>
     </row>
     <row r="199">
@@ -25791,14 +25821,14 @@
         <v>491</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
-        <v>770</v>
+        <v>76</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" t="s" s="2">
@@ -25814,7 +25844,7 @@
         <v>76</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L199" t="s" s="2">
         <v>771</v>
@@ -25876,7 +25906,7 @@
         <v>76</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>77</v>
@@ -25888,7 +25918,7 @@
         <v>80</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="200">
@@ -25903,14 +25933,14 @@
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
-        <v>776</v>
+        <v>76</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H200" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I200" t="s" s="2">
         <v>76</v>
@@ -25922,16 +25952,16 @@
         <v>133</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>267</v>
+        <v>118</v>
       </c>
       <c r="M200" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="N200" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="N200" t="s" s="2">
-        <v>778</v>
-      </c>
       <c r="O200" t="s" s="2">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="P200" s="2"/>
       <c r="Q200" t="s" s="2">
@@ -25957,10 +25987,10 @@
         <v>76</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>76</v>
+        <v>778</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>76</v>
@@ -25987,13 +26017,13 @@
         <v>77</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>271</v>
+        <v>104</v>
       </c>
     </row>
     <row r="201">
@@ -26015,27 +26045,29 @@
         <v>77</v>
       </c>
       <c r="H201" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I201" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J201" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>85</v>
+        <v>780</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O201" s="2"/>
+        <v>781</v>
+      </c>
+      <c r="O201" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P201" s="2"/>
       <c r="Q201" t="s" s="2">
         <v>76</v>
@@ -26060,13 +26092,13 @@
         <v>76</v>
       </c>
       <c r="Y201" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="Z201" t="s" s="2">
-        <v>76</v>
+        <v>782</v>
       </c>
       <c r="AA201" t="s" s="2">
-        <v>76</v>
+        <v>783</v>
       </c>
       <c r="AB201" t="s" s="2">
         <v>76</v>
@@ -26084,19 +26116,19 @@
         <v>76</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>87</v>
+        <v>779</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="202">
@@ -26104,24 +26136,24 @@
         <v>491</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I202" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J202" t="s" s="2">
         <v>76</v>
@@ -26130,16 +26162,16 @@
         <v>76</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>89</v>
+        <v>540</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>174</v>
+        <v>785</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>237</v>
+        <v>786</v>
       </c>
       <c r="O202" t="s" s="2">
-        <v>176</v>
+        <v>787</v>
       </c>
       <c r="P202" s="2"/>
       <c r="Q202" t="s" s="2">
@@ -26177,31 +26209,31 @@
         <v>76</v>
       </c>
       <c r="AC202" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD202" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE202" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>94</v>
+        <v>784</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ202" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="203">
@@ -26209,24 +26241,24 @@
         <v>491</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
-        <v>76</v>
+        <v>789</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H203" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I203" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J203" t="s" s="2">
         <v>76</v>
@@ -26235,16 +26267,16 @@
         <v>133</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="P203" s="2"/>
       <c r="Q203" t="s" s="2">
@@ -26294,19 +26326,19 @@
         <v>76</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>787</v>
+        <v>80</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204">
@@ -26314,14 +26346,14 @@
         <v>491</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
-        <v>76</v>
+        <v>795</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" t="s" s="2">
@@ -26331,7 +26363,7 @@
         <v>83</v>
       </c>
       <c r="I204" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J204" t="s" s="2">
         <v>76</v>
@@ -26340,24 +26372,22 @@
         <v>133</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>782</v>
+        <v>267</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>791</v>
+        <v>270</v>
       </c>
       <c r="P204" s="2"/>
       <c r="Q204" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R204" t="s" s="2">
-        <v>792</v>
-      </c>
+      <c r="R204" s="2"/>
       <c r="S204" t="s" s="2">
         <v>76</v>
       </c>
@@ -26401,7 +26431,7 @@
         <v>76</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>77</v>
@@ -26410,10 +26440,10 @@
         <v>83</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>787</v>
+        <v>80</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>104</v>
+        <v>271</v>
       </c>
     </row>
     <row r="205">
@@ -26421,10 +26451,10 @@
         <v>491</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26438,26 +26468,24 @@
         <v>83</v>
       </c>
       <c r="I205" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J205" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>447</v>
+        <v>84</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>795</v>
+        <v>85</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>796</v>
-      </c>
-      <c r="O205" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O205" s="2"/>
       <c r="P205" s="2"/>
       <c r="Q205" t="s" s="2">
         <v>76</v>
@@ -26506,7 +26534,7 @@
         <v>76</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>794</v>
+        <v>87</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>77</v>
@@ -26515,10 +26543,10 @@
         <v>83</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
     </row>
     <row r="206">
@@ -26526,21 +26554,21 @@
         <v>491</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>76</v>
@@ -26549,19 +26577,19 @@
         <v>76</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>798</v>
+        <v>89</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>799</v>
+        <v>174</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>800</v>
+        <v>237</v>
       </c>
       <c r="O206" t="s" s="2">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="P206" s="2"/>
       <c r="Q206" t="s" s="2">
@@ -26599,31 +26627,31 @@
         <v>76</v>
       </c>
       <c r="AC206" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD206" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE206" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>797</v>
+        <v>94</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ206" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK206" t="s" s="2">
-        <v>228</v>
+        <v>81</v>
       </c>
     </row>
     <row r="207">
@@ -26631,10 +26659,10 @@
         <v>491</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26645,10 +26673,10 @@
         <v>77</v>
       </c>
       <c r="H207" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I207" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="J207" t="s" s="2">
         <v>76</v>
@@ -26657,16 +26685,16 @@
         <v>133</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>802</v>
+        <v>604</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>804</v>
+        <v>606</v>
       </c>
       <c r="O207" t="s" s="2">
-        <v>283</v>
+        <v>607</v>
       </c>
       <c r="P207" s="2"/>
       <c r="Q207" t="s" s="2">
@@ -26716,19 +26744,19 @@
         <v>76</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>801</v>
+        <v>608</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>80</v>
+        <v>609</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>228</v>
+        <v>104</v>
       </c>
     </row>
     <row r="208">
@@ -26736,10 +26764,10 @@
         <v>491</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26753,7 +26781,7 @@
         <v>83</v>
       </c>
       <c r="I208" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J208" t="s" s="2">
         <v>76</v>
@@ -26762,22 +26790,24 @@
         <v>133</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>118</v>
+        <v>604</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>807</v>
+        <v>613</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>246</v>
+        <v>614</v>
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R208" s="2"/>
+      <c r="R208" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="S208" t="s" s="2">
         <v>76</v>
       </c>
@@ -26797,13 +26827,13 @@
         <v>76</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="Z208" t="s" s="2">
-        <v>808</v>
+        <v>76</v>
       </c>
       <c r="AA208" t="s" s="2">
-        <v>809</v>
+        <v>76</v>
       </c>
       <c r="AB208" t="s" s="2">
         <v>76</v>
@@ -26821,7 +26851,7 @@
         <v>76</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>805</v>
+        <v>616</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>77</v>
@@ -26830,7 +26860,7 @@
         <v>83</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>80</v>
+        <v>609</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>104</v>
@@ -26841,10 +26871,10 @@
         <v>491</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -26855,28 +26885,28 @@
         <v>77</v>
       </c>
       <c r="H209" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I209" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J209" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>811</v>
+        <v>447</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>814</v>
+        <v>283</v>
       </c>
       <c r="P209" s="2"/>
       <c r="Q209" t="s" s="2">
@@ -26926,19 +26956,19 @@
         <v>76</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ209" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="210">
@@ -26946,10 +26976,10 @@
         <v>491</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26960,7 +26990,7 @@
         <v>77</v>
       </c>
       <c r="H210" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I210" t="s" s="2">
         <v>76</v>
@@ -26969,18 +26999,20 @@
         <v>76</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>230</v>
+        <v>808</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="O210" s="2"/>
+        <v>810</v>
+      </c>
+      <c r="O210" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
         <v>76</v>
@@ -27029,19 +27061,19 @@
         <v>76</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>104</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211">
@@ -27049,10 +27081,10 @@
         <v>491</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -27063,27 +27095,29 @@
         <v>77</v>
       </c>
       <c r="H211" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I211" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J211" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>84</v>
+        <v>812</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>85</v>
+        <v>813</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O211" s="2"/>
+        <v>814</v>
+      </c>
+      <c r="O211" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P211" s="2"/>
       <c r="Q211" t="s" s="2">
         <v>76</v>
@@ -27132,19 +27166,19 @@
         <v>76</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>87</v>
+        <v>811</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212">
@@ -27152,21 +27186,21 @@
         <v>491</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I212" t="s" s="2">
         <v>76</v>
@@ -27175,19 +27209,19 @@
         <v>76</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>174</v>
+        <v>816</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>237</v>
+        <v>817</v>
       </c>
       <c r="O212" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P212" s="2"/>
       <c r="Q212" t="s" s="2">
@@ -27213,43 +27247,43 @@
         <v>76</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="Z212" t="s" s="2">
-        <v>76</v>
+        <v>818</v>
       </c>
       <c r="AA212" t="s" s="2">
-        <v>76</v>
+        <v>819</v>
       </c>
       <c r="AB212" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC212" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD212" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE212" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>94</v>
+        <v>815</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ212" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="213">
@@ -27264,7 +27298,7 @@
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" t="s" s="2">
@@ -27277,26 +27311,24 @@
         <v>76</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>89</v>
+        <v>821</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>240</v>
+        <v>822</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>241</v>
+        <v>823</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P213" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="P213" s="2"/>
       <c r="Q213" t="s" s="2">
         <v>76</v>
       </c>
@@ -27344,7 +27376,7 @@
         <v>76</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>242</v>
+        <v>820</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>77</v>
@@ -27356,7 +27388,7 @@
         <v>80</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="214">
@@ -27364,10 +27396,10 @@
         <v>491</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -27375,10 +27407,10 @@
       </c>
       <c r="F214" s="2"/>
       <c r="G214" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>76</v>
@@ -27390,17 +27422,15 @@
         <v>76</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="O214" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="O214" s="2"/>
       <c r="P214" s="2"/>
       <c r="Q214" t="s" s="2">
         <v>76</v>
@@ -27449,13 +27479,13 @@
         <v>76</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>80</v>
@@ -27469,10 +27499,10 @@
         <v>491</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -27495,17 +27525,15 @@
         <v>76</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>825</v>
+        <v>85</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="O215" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O215" s="2"/>
       <c r="P215" s="2"/>
       <c r="Q215" t="s" s="2">
         <v>76</v>
@@ -27554,7 +27582,7 @@
         <v>76</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>824</v>
+        <v>87</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>77</v>
@@ -27563,10 +27591,10 @@
         <v>83</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="216">
@@ -27574,21 +27602,21 @@
         <v>491</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I216" t="s" s="2">
         <v>76</v>
@@ -27600,16 +27628,16 @@
         <v>76</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>828</v>
+        <v>174</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>829</v>
+        <v>237</v>
       </c>
       <c r="O216" t="s" s="2">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="P216" s="2"/>
       <c r="Q216" t="s" s="2">
@@ -27647,31 +27675,31 @@
         <v>76</v>
       </c>
       <c r="AC216" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD216" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE216" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>827</v>
+        <v>94</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217">
@@ -27686,7 +27714,7 @@
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" t="s" s="2">
@@ -27699,22 +27727,26 @@
         <v>76</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>831</v>
+        <v>240</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>832</v>
-      </c>
-      <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O217" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P217" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q217" t="s" s="2">
         <v>76</v>
       </c>
@@ -27762,7 +27794,7 @@
         <v>76</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>830</v>
+        <v>242</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>77</v>
@@ -27774,7 +27806,7 @@
         <v>80</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="218">
@@ -27782,10 +27814,10 @@
         <v>491</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27793,7 +27825,7 @@
       </c>
       <c r="F218" s="2"/>
       <c r="G218" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H218" t="s" s="2">
         <v>83</v>
@@ -27811,12 +27843,14 @@
         <v>84</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>85</v>
+        <v>832</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O218" s="2"/>
+        <v>833</v>
+      </c>
+      <c r="O218" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P218" s="2"/>
       <c r="Q218" t="s" s="2">
         <v>76</v>
@@ -27865,19 +27899,19 @@
         <v>76</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>87</v>
+        <v>831</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="219">
@@ -27892,14 +27926,14 @@
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>76</v>
@@ -27911,16 +27945,16 @@
         <v>76</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>174</v>
+        <v>835</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>237</v>
+        <v>836</v>
       </c>
       <c r="O219" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="P219" s="2"/>
       <c r="Q219" t="s" s="2">
@@ -27958,31 +27992,31 @@
         <v>76</v>
       </c>
       <c r="AC219" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD219" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>94</v>
+        <v>834</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="220">
@@ -27990,46 +28024,44 @@
         <v>491</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>240</v>
+        <v>838</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>241</v>
+        <v>839</v>
       </c>
       <c r="O220" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P220" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="P220" s="2"/>
       <c r="Q220" t="s" s="2">
         <v>76</v>
       </c>
@@ -28077,19 +28109,19 @@
         <v>76</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>242</v>
+        <v>837</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ220" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="221">
@@ -28097,10 +28129,10 @@
         <v>491</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -28111,7 +28143,7 @@
         <v>77</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>76</v>
@@ -28123,17 +28155,15 @@
         <v>76</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="O221" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="O221" s="2"/>
       <c r="P221" s="2"/>
       <c r="Q221" t="s" s="2">
         <v>76</v>
@@ -28182,13 +28212,13 @@
         <v>76</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI221" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ221" t="s" s="2">
         <v>80</v>
@@ -28202,10 +28232,10 @@
         <v>491</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -28228,17 +28258,15 @@
         <v>76</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>840</v>
+        <v>85</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>841</v>
-      </c>
-      <c r="O222" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O222" s="2"/>
       <c r="P222" s="2"/>
       <c r="Q222" t="s" s="2">
         <v>76</v>
@@ -28263,13 +28291,13 @@
         <v>76</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="Z222" t="s" s="2">
-        <v>842</v>
+        <v>76</v>
       </c>
       <c r="AA222" t="s" s="2">
-        <v>843</v>
+        <v>76</v>
       </c>
       <c r="AB222" t="s" s="2">
         <v>76</v>
@@ -28287,7 +28315,7 @@
         <v>76</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>839</v>
+        <v>87</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>77</v>
@@ -28296,25 +28324,25 @@
         <v>83</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>31</v>
+        <v>844</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>31</v>
+        <v>844</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" t="s" s="2">
@@ -28333,15 +28361,17 @@
         <v>76</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O223" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O223" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P223" s="2"/>
       <c r="Q223" t="s" s="2">
         <v>76</v>
@@ -28378,19 +28408,19 @@
         <v>76</v>
       </c>
       <c r="AC223" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD223" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE223" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>77</v>
@@ -28407,45 +28437,49 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>82</v>
+        <v>845</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>82</v>
+        <v>845</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O224" s="2"/>
-      <c r="P224" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O224" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P224" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Q224" t="s" s="2">
         <v>76</v>
       </c>
@@ -28493,30 +28527,30 @@
         <v>76</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ224" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>88</v>
+        <v>846</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>88</v>
+        <v>846</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -28527,7 +28561,7 @@
         <v>77</v>
       </c>
       <c r="H225" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I225" t="s" s="2">
         <v>76</v>
@@ -28539,15 +28573,17 @@
         <v>76</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>31</v>
+        <v>847</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O225" s="2"/>
+        <v>848</v>
+      </c>
+      <c r="O225" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P225" s="2"/>
       <c r="Q225" t="s" s="2">
         <v>76</v>
@@ -28584,42 +28620,42 @@
         <v>76</v>
       </c>
       <c r="AC225" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD225" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE225" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>94</v>
+        <v>846</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ225" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK225" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>95</v>
+        <v>849</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>95</v>
+        <v>849</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -28627,7 +28663,7 @@
       </c>
       <c r="F226" s="2"/>
       <c r="G226" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H226" t="s" s="2">
         <v>83</v>
@@ -28642,16 +28678,16 @@
         <v>76</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>97</v>
+        <v>850</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>98</v>
+        <v>851</v>
       </c>
       <c r="O226" t="s" s="2">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="P226" s="2"/>
       <c r="Q226" t="s" s="2">
@@ -28659,7 +28695,7 @@
       </c>
       <c r="R226" s="2"/>
       <c r="S226" t="s" s="2">
-        <v>844</v>
+        <v>76</v>
       </c>
       <c r="T226" t="s" s="2">
         <v>76</v>
@@ -28677,13 +28713,13 @@
         <v>76</v>
       </c>
       <c r="Y226" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="Z226" t="s" s="2">
-        <v>76</v>
+        <v>852</v>
       </c>
       <c r="AA226" t="s" s="2">
-        <v>76</v>
+        <v>853</v>
       </c>
       <c r="AB226" t="s" s="2">
         <v>76</v>
@@ -28701,19 +28737,19 @@
         <v>76</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>95</v>
+        <v>849</v>
       </c>
       <c r="AH226" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI226" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="227">
@@ -28721,10 +28757,10 @@
         <v>509</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -28735,7 +28771,7 @@
         <v>77</v>
       </c>
       <c r="H227" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I227" t="s" s="2">
         <v>76</v>
@@ -28747,13 +28783,13 @@
         <v>76</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>846</v>
+        <v>79</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>103</v>
+        <v>512</v>
       </c>
       <c r="O227" s="2"/>
       <c r="P227" s="2"/>
@@ -28804,30 +28840,30 @@
         <v>76</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI227" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ227" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -28838,7 +28874,7 @@
         <v>77</v>
       </c>
       <c r="H228" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I228" t="s" s="2">
         <v>76</v>
@@ -28850,13 +28886,13 @@
         <v>76</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>525</v>
+        <v>86</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
@@ -28907,30 +28943,30 @@
         <v>76</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI228" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ228" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -28941,7 +28977,7 @@
         <v>77</v>
       </c>
       <c r="H229" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I229" t="s" s="2">
         <v>76</v>
@@ -28953,13 +28989,13 @@
         <v>76</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
@@ -28998,42 +29034,42 @@
         <v>76</v>
       </c>
       <c r="AC229" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD229" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE229" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -29041,10 +29077,10 @@
       </c>
       <c r="F230" s="2"/>
       <c r="G230" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>76</v>
@@ -29056,22 +29092,24 @@
         <v>76</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O230" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O230" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P230" s="2"/>
       <c r="Q230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R230" s="2"/>
       <c r="S230" t="s" s="2">
-        <v>76</v>
+        <v>854</v>
       </c>
       <c r="T230" t="s" s="2">
         <v>76</v>
@@ -29101,42 +29139,42 @@
         <v>76</v>
       </c>
       <c r="AC230" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD230" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH230" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -29144,7 +29182,7 @@
       </c>
       <c r="F231" s="2"/>
       <c r="G231" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H231" t="s" s="2">
         <v>83</v>
@@ -29159,24 +29197,22 @@
         <v>76</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>96</v>
+        <v>856</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O231" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O231" s="2"/>
       <c r="P231" s="2"/>
       <c r="Q231" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R231" s="2"/>
       <c r="S231" t="s" s="2">
-        <v>847</v>
+        <v>76</v>
       </c>
       <c r="T231" t="s" s="2">
         <v>76</v>
@@ -29218,19 +29254,19 @@
         <v>76</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH231" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI231" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="232">
@@ -29238,10 +29274,10 @@
         <v>522</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -29252,7 +29288,7 @@
         <v>77</v>
       </c>
       <c r="H232" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I232" t="s" s="2">
         <v>76</v>
@@ -29264,13 +29300,13 @@
         <v>76</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>103</v>
+        <v>525</v>
       </c>
       <c r="O232" s="2"/>
       <c r="P232" s="2"/>
@@ -29321,30 +29357,30 @@
         <v>76</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI232" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ232" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -29355,7 +29391,7 @@
         <v>77</v>
       </c>
       <c r="H233" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I233" t="s" s="2">
         <v>76</v>
@@ -29367,13 +29403,13 @@
         <v>76</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>385</v>
+        <v>86</v>
       </c>
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
@@ -29424,30 +29460,30 @@
         <v>76</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI233" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
@@ -29458,7 +29494,7 @@
         <v>77</v>
       </c>
       <c r="H234" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I234" t="s" s="2">
         <v>76</v>
@@ -29470,13 +29506,13 @@
         <v>76</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O234" s="2"/>
       <c r="P234" s="2"/>
@@ -29515,42 +29551,42 @@
         <v>76</v>
       </c>
       <c r="AC234" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD234" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE234" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ234" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -29558,10 +29594,10 @@
       </c>
       <c r="F235" s="2"/>
       <c r="G235" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H235" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I235" t="s" s="2">
         <v>76</v>
@@ -29573,22 +29609,24 @@
         <v>76</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O235" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O235" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P235" s="2"/>
       <c r="Q235" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R235" s="2"/>
       <c r="S235" t="s" s="2">
-        <v>76</v>
+        <v>857</v>
       </c>
       <c r="T235" t="s" s="2">
         <v>76</v>
@@ -29618,42 +29656,42 @@
         <v>76</v>
       </c>
       <c r="AC235" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD235" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE235" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH235" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI235" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
@@ -29661,7 +29699,7 @@
       </c>
       <c r="F236" s="2"/>
       <c r="G236" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H236" t="s" s="2">
         <v>83</v>
@@ -29676,24 +29714,22 @@
         <v>76</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>96</v>
+        <v>447</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O236" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O236" s="2"/>
       <c r="P236" s="2"/>
       <c r="Q236" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R236" s="2"/>
       <c r="S236" t="s" s="2">
-        <v>849</v>
+        <v>76</v>
       </c>
       <c r="T236" t="s" s="2">
         <v>76</v>
@@ -29735,19 +29771,19 @@
         <v>76</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH236" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI236" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ236" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="237">
@@ -29755,10 +29791,10 @@
         <v>382</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -29769,7 +29805,7 @@
         <v>77</v>
       </c>
       <c r="H237" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I237" t="s" s="2">
         <v>76</v>
@@ -29781,13 +29817,13 @@
         <v>76</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>103</v>
+        <v>385</v>
       </c>
       <c r="O237" s="2"/>
       <c r="P237" s="2"/>
@@ -29838,30 +29874,30 @@
         <v>76</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI237" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ237" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK237" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -29872,7 +29908,7 @@
         <v>77</v>
       </c>
       <c r="H238" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I238" t="s" s="2">
         <v>76</v>
@@ -29884,13 +29920,13 @@
         <v>76</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>517</v>
+        <v>86</v>
       </c>
       <c r="O238" s="2"/>
       <c r="P238" s="2"/>
@@ -29941,30 +29977,30 @@
         <v>76</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI238" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ238" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK238" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -29975,7 +30011,7 @@
         <v>77</v>
       </c>
       <c r="H239" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I239" t="s" s="2">
         <v>76</v>
@@ -29987,13 +30023,13 @@
         <v>76</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O239" s="2"/>
       <c r="P239" s="2"/>
@@ -30032,42 +30068,42 @@
         <v>76</v>
       </c>
       <c r="AC239" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD239" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE239" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI239" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ239" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK239" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
@@ -30075,10 +30111,10 @@
       </c>
       <c r="F240" s="2"/>
       <c r="G240" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H240" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I240" t="s" s="2">
         <v>76</v>
@@ -30090,22 +30126,24 @@
         <v>76</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O240" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O240" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P240" s="2"/>
       <c r="Q240" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R240" s="2"/>
       <c r="S240" t="s" s="2">
-        <v>76</v>
+        <v>859</v>
       </c>
       <c r="T240" t="s" s="2">
         <v>76</v>
@@ -30135,42 +30173,42 @@
         <v>76</v>
       </c>
       <c r="AC240" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD240" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE240" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH240" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI240" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ240" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -30178,7 +30216,7 @@
       </c>
       <c r="F241" s="2"/>
       <c r="G241" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H241" t="s" s="2">
         <v>83</v>
@@ -30193,24 +30231,22 @@
         <v>76</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O241" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O241" s="2"/>
       <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R241" s="2"/>
       <c r="S241" t="s" s="2">
-        <v>852</v>
+        <v>76</v>
       </c>
       <c r="T241" t="s" s="2">
         <v>76</v>
@@ -30252,19 +30288,19 @@
         <v>76</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH241" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI241" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ241" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="242">
@@ -30272,10 +30308,10 @@
         <v>514</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -30286,7 +30322,7 @@
         <v>77</v>
       </c>
       <c r="H242" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I242" t="s" s="2">
         <v>76</v>
@@ -30298,13 +30334,13 @@
         <v>76</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>103</v>
+        <v>517</v>
       </c>
       <c r="O242" s="2"/>
       <c r="P242" s="2"/>
@@ -30355,18 +30391,432 @@
         <v>76</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI242" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ242" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK242" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C243" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D243" s="2"/>
+      <c r="E243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F243" s="2"/>
+      <c r="G243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H243" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L243" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M243" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N243" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O243" s="2"/>
+      <c r="P243" s="2"/>
+      <c r="Q243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R243" s="2"/>
+      <c r="S243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG243" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH243" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI243" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ243" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK243" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B244" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C244" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D244" s="2"/>
+      <c r="E244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F244" s="2"/>
+      <c r="G244" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H244" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L244" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M244" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="N244" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O244" s="2"/>
+      <c r="P244" s="2"/>
+      <c r="Q244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R244" s="2"/>
+      <c r="S244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC244" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AD244" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE244" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF244" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG244" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH244" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI244" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ244" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK244" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B245" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C245" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D245" s="2"/>
+      <c r="E245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F245" s="2"/>
+      <c r="G245" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H245" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L245" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M245" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N245" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O245" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P245" s="2"/>
+      <c r="Q245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R245" s="2"/>
+      <c r="S245" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="T245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG245" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH245" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI245" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ245" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK245" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B246" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C246" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D246" s="2"/>
+      <c r="E246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F246" s="2"/>
+      <c r="G246" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H246" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L246" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M246" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N246" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O246" s="2"/>
+      <c r="P246" s="2"/>
+      <c r="Q246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R246" s="2"/>
+      <c r="S246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF246" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG246" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH246" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI246" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ246" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK246" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/ig/sd-add-date-start-idPrimary/all-profiles.xlsx
+++ b/ig/sd-add-date-start-idPrimary/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T11:35:25+00:00</t>
+    <t>2024-01-24T12:42:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
